--- a/user_study/survey_result.xlsx
+++ b/user_study/survey_result.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwan/Desktop/API_paper/icse22_artifact/user_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EDFFE3-2757-A243-9621-FB1D8C0106B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CD80BE-8D5A-F64E-A181-D18F880D7CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="27380" windowHeight="16940" xr2:uid="{7D7B9868-281F-214B-8C32-D5771BA00D1D}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="27380" windowHeight="16940" activeTab="1" xr2:uid="{7D7B9868-281F-214B-8C32-D5771BA00D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="7" r:id="rId1"/>
-    <sheet name="Explaination" sheetId="8" r:id="rId2"/>
+    <sheet name="Explanation" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -234,10 +234,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B342E0-F82E-B64E-B98F-1780DE6848A3}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -564,7 +564,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B1" t="s">
@@ -590,7 +590,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -614,7 +614,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -650,7 +650,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -674,7 +674,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -710,7 +710,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -734,7 +734,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
@@ -760,7 +760,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -784,7 +784,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -820,7 +820,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -844,7 +844,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -880,7 +880,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -904,7 +904,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B13" t="s">
@@ -930,7 +930,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -954,25 +954,25 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -996,7 +996,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
@@ -1022,7 +1022,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -1046,7 +1046,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -1082,7 +1082,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -1106,7 +1106,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -1142,7 +1142,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -1171,73 +1171,73 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="2"/>
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>62</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>12</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>26</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <f>A29-C29</f>
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>57</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>23</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>20</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <f t="shared" ref="D30:D32" si="0">A30-C30</f>
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>50</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>27</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>23</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>63</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>16</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>21</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -1257,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367B9D80-DE79-654F-B37C-4549FE265D79}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
